--- a/graph_generation/results_prelim/claude2/level_10/k_3.xlsx
+++ b/graph_generation/results_prelim/claude2/level_10/k_3.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -86,31 +86,34 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node G, and then from node node G to node 13? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 5 2 0 0 1 0 2 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 2 0 0 1 1 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- H 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 2 0 0 0 0 0 0 0 2 0 0 3
- K 0 0 0 0 0 0 0 0 0 2 0 5 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 1 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 5
- N 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+What is the least cost path to travel first from node A to node I, and then from node node I to node O? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 4
+ B 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 2 2 3 0 0 0 1 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 3 0 0 0 5 5 4 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ K 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5
+ O 4 0 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
-    <t>Path from A to G: A -&gt; B -&gt; C -&gt; E -&gt; G
-Path from G to N: G -&gt; E -&gt; C -&gt; J -&gt; N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Path from A to G: A -&gt; E -&gt; G
-Path from G to 13: G -&gt; E -&gt; J -&gt; N -&gt; M -&gt; 13</t>
+    <t>Path from A to I: A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; I
+Path from I to O: I -&gt; G -&gt; D -&gt; C -&gt; B -&gt; A -&gt; O</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Path from A to I: 
+A -&gt; G -&gt; H -&gt; I
+Path from I to O:
+I -&gt; G -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>Wrong</t>
